--- a/HOSKPG_UNIDENTIFIED_RONA/Workdays - 23 April/VSol2-189/Unidentified  VSOL_2.xlsx
+++ b/HOSKPG_UNIDENTIFIED_RONA/Workdays - 23 April/VSol2-189/Unidentified  VSOL_2.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="0" windowWidth="19500" windowHeight="8205" activeTab="1"/>
+    <workbookView xWindow="2910" yWindow="0" windowWidth="19500" windowHeight="8205" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Unidentified Report VSOL_2" sheetId="1" r:id="rId1"/>
-    <sheet name="Unidentified Source VSOL_2" sheetId="2" r:id="rId2"/>
+    <sheet name="Unidentified Report VSOL_2_189" sheetId="1" r:id="rId1"/>
+    <sheet name="Unidentified Source VSOL_2_189" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5258,8 +5258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1540"/>
   <sheetViews>
-    <sheetView topLeftCell="C115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
